--- a/test3_250619/페이지 구상안.xlsx
+++ b/test3_250619/페이지 구상안.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeChaeYun\Desktop\Git\WebLocal\test3_250619\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddd095a1e3fa6c8e/Desktop/WebLocal/test3_250619/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AB7C63-7F57-4234-BA51-08EC42D974E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{54AB7C63-7F57-4234-BA51-08EC42D974E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F864ACD-BFBA-49DB-810B-C1783FB1806C}"/>
   <bookViews>
-    <workbookView xWindow="9045" yWindow="1875" windowWidth="19440" windowHeight="11385" xr2:uid="{5E67FFAB-56C4-46B3-B26C-39065D2E78F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5E67FFAB-56C4-46B3-B26C-39065D2E78F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부가메뉴 계층관계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상단으로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,6 +205,74 @@
   </si>
   <si>
     <t>타겟클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!-- 1. Sementic Tag 작업 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- 2. 요소의 형태, 디자인(상위,반복 요소부터)--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- 3. 페이지 연결, js, id/class, 디자인 링크 속성 설정 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- 4. html, js 작업이 끝나면 css를 한다. --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;head&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sideMenuToggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;section&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;footer&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copyright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sideMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. class 값의 형식은 적용할 css 잘 드러나도록 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +293,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -255,8 +328,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -277,9 +353,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -317,7 +393,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -423,7 +499,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -565,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -573,84 +649,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D11431B-1E8F-42C0-A508-C924D4F430CD}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.9140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E25" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="J25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E28" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E29" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E30" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -670,7 +826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -681,17 +837,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -699,7 +855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
         <v>27</v>
       </c>
@@ -707,17 +863,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>18</v>
       </c>
@@ -725,22 +881,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D56" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>6</v>
       </c>
@@ -748,24 +904,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D63" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
